--- a/DataTables/Datas/item.xlsx
+++ b/DataTables/Datas/item.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319AD22D-46D8-4722-8C2D-ECF4C5178348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125CD14-E704-4C91-A7C1-614CF7E50BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="3810" windowWidth="19500" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12825" yWindow="7620" windowWidth="15150" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
